--- a/form_b_database.xlsx
+++ b/form_b_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,81 +461,73 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>मंजुर पिके</t>
+          <t>पीक</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>धोंड</t>
+          <t>ffff</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>abv</t>
+          <t>नांदगाव बु.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>234</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>sddf</t>
+          <t>rff</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>धोंड</t>
+          <t>eeeeeeeee</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>abv</t>
+          <t>लक्ष्मीनगर</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>234</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>sddf</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+          <t>rff</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/form_b_database.xlsx
+++ b/form_b_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ffff</t>
+          <t>rrrrrrrrr</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -492,38 +492,6 @@
         </is>
       </c>
       <c r="F2" t="inlineStr">
-        <is>
-          <t>rff</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>eeeeeeeee</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>लक्ष्मीनगर</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
         <is>
           <t>rff</t>
         </is>
